--- a/tables/SupplementaryData_AllStudies.xlsx
+++ b/tables/SupplementaryData_AllStudies.xlsx
@@ -9503,7 +9503,7 @@
         <v>340</v>
       </c>
       <c r="I142" s="5" t="n">
-        <v>-57</v>
+        <v>57</v>
       </c>
       <c r="J142" s="2" t="n">
         <v>48</v>
